--- a/medicine/Hématologie/Choc_hémorragique/Choc_hémorragique.xlsx
+++ b/medicine/Hématologie/Choc_hémorragique/Choc_hémorragique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choc_h%C3%A9morragique</t>
+          <t>Choc_hémorragique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'état de « choc hémorragique » correspond à une insuffisance circulatoire aiguë, entraînant une hypoperfusion tissulaire et donc des désordres systémiques (hémodynamiques, métaboliques et viscéraux secondaire). Elle est due à une réduction aiguë de la masse sanguine circulante (&gt; 40 %), ce qui entraîne une chute de l'alimentation des cellules en oxygène.
 Le risque de mortalité est élevé si cet état n'est pas rapidement diagnostiqué et traité au plus vite. C'est une des causes de collapsus cardio-vasculaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choc_h%C3%A9morragique</t>
+          <t>Choc_hémorragique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La diminution de la masse sanguine ou de son débit va entraîner :
 une diminution du transport et de la distribution de l'oxygène,
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choc_h%C3%A9morragique</t>
+          <t>Choc_hémorragique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'état de choc hémorragique peut se révéler, outre par une hémorragie extériorisée, par les signes suivants :
 hypotension
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choc_h%C3%A9morragique</t>
+          <t>Choc_hémorragique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,18 +605,98 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hémorragies extériorisées
-plaies vasculaires traumatiques,
+          <t>Hémorragies extériorisées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>plaies vasculaires traumatiques,
 hémorragie digestive : hématémèse, rectorragies, méléna,
 épistaxis,
-hémorragies gynéco-obstétricales.
-Hémorragies non extériorisées
-Post-traumatiques
-hémothorax, hémopéritoine,
+hémorragies gynéco-obstétricales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Choc_hémorragique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choc_h%C3%A9morragique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hémorragies non extériorisées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Post-traumatiques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hémothorax, hémopéritoine,
 rupture de gros vaisseaux,
-fractures (bassin, fémur).
-Non post-traumatiques
-hémorragie digestive,
+fractures (bassin, fémur).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Choc_hémorragique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choc_h%C3%A9morragique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hémorragies non extériorisées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Non post-traumatiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hémorragie digestive,
 rupture de grossesse extra-utérine,
 rupture d'anévrisme aortique,
 pancréatite aiguë hémorragique,
@@ -608,39 +704,81 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Choc_h%C3%A9morragique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Choc_hémorragique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Choc_h%C3%A9morragique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement symptomatique
-Assurer le transport en oxygène
-oxygène, voire intubation trachéale si nécessaire,
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement symptomatique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Assurer le transport en oxygène</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>oxygène, voire intubation trachéale si nécessaire,
 remplissage vasculaire (500 à 1 000 cm3) par soluté macromoléculaire,
-transfusion sanguine.
-Traitement étiologique
-Le traitement de la cause est essentiel. 
+transfusion sanguine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Choc_hémorragique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choc_h%C3%A9morragique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traitement étiologique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement de la cause est essentiel. 
 Il peut être chirurgical ou non chirurgical (compressions, sutures, traitement endoscopique, glypressine, sonde de Blackmore, embolisation, etc.)
 </t>
         </is>
